--- a/results/mp/logistic/corona/confidence/84/topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,163 +46,205 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
   </si>
 </sst>
 </file>
@@ -560,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7328767123287672</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C4">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D4">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6176470588235294</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -847,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8459530026109661</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4864864864864865</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8113207547169812</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4736842105263158</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,16 +992,16 @@
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3862433862433862</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.7682926829268293</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3333333333333333</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34</v>
+        <v>342</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.765625</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L12">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3294573643410852</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C13">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.7625</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L13">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2372881355932203</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7605633802816901</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2080536912751678</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7435897435897436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1866666666666667</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7307692307692307</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1361111111111111</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,37 +1421,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.003489048265167668</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>5141</v>
+        <v>236</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,37 +1471,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003006614552014432</v>
+        <v>0.006318449873631003</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="F19">
-        <v>0.6799999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>4974</v>
+        <v>2359</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,47 +1513,95 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.005797101449275362</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>0.9</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3087</v>
+      </c>
       <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.002809552478426651</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>0.48</v>
+      </c>
+      <c r="F21">
+        <v>0.52</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>4969</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.7413793103448276</v>
+      </c>
+      <c r="L21">
         <v>43</v>
       </c>
-      <c r="K20">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>26</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L21">
-        <v>45</v>
-      </c>
       <c r="M21">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1523,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1549,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.6511627906976745</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1575,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1601,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.5911764705882353</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L25">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1627,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.5846153846153846</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1653,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.5815899581589958</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L27">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1679,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.574468085106383</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L28">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M28">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1705,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.5491525423728814</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L29">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1731,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1757,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.5357142857142857</v>
+        <v>0.62</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1783,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.5142857142857142</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1809,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1835,15 +1925,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.4382022471910113</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
         <v>39</v>
@@ -1861,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.3529411764705883</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1887,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.2888888888888889</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1913,15 +2003,15 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.282051282051282</v>
+        <v>0.55</v>
       </c>
       <c r="L37">
         <v>22</v>
@@ -1939,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.273972602739726</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1965,33 +2055,371 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.01419031719532554</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L39">
         <v>17</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N39">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1181</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L40">
+        <v>36</v>
+      </c>
+      <c r="M40">
+        <v>36</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41">
+        <v>0.449438202247191</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>40</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L43">
+        <v>17</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46">
+        <v>0.2191780821917808</v>
+      </c>
+      <c r="L46">
+        <v>16</v>
+      </c>
+      <c r="M46">
+        <v>16</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47">
+        <v>0.21875</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48">
+        <v>0.01251042535446205</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>16</v>
+      </c>
+      <c r="N48">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O48">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49">
+        <v>0.004876219054763691</v>
+      </c>
+      <c r="L49">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>0.65</v>
+      </c>
+      <c r="O49">
+        <v>0.35</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50">
+        <v>0.004633920296570899</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>32</v>
+      </c>
+      <c r="N50">
+        <v>0.62</v>
+      </c>
+      <c r="O50">
+        <v>0.38</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K51">
+        <v>0.002715809893307468</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>24</v>
+      </c>
+      <c r="N51">
+        <v>0.58</v>
+      </c>
+      <c r="O51">
+        <v>0.42</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52">
+        <v>0.002609393817743878</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <v>27</v>
+      </c>
+      <c r="N52">
+        <v>0.48</v>
+      </c>
+      <c r="O52">
+        <v>0.52</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4969</v>
       </c>
     </row>
   </sheetData>
